--- a/Prioritas.xlsx
+++ b/Prioritas.xlsx
@@ -5,22 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\fp-rk-c-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14462E-6CD7-41F4-8B61-0FB43947DF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B67D443-C344-4192-A84F-D07B15F173E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{70AF07F5-B566-4188-A5F9-AA8B127A17AD}"/>
+    <workbookView xWindow="2280" yWindow="4110" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{70AF07F5-B566-4188-A5F9-AA8B127A17AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="2" r:id="rId2"/>
     <sheet name="Hasil" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -187,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -210,18 +205,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,12 +251,86 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -317,7 +398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{520D8BD3-D949-48D2-B21F-221745494A43}" type="CELLRANGE">
+                    <a:fld id="{C6149B39-BE0D-40A8-B27E-02253DCF2E24}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -351,7 +432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7FE4B10-D01F-4BB8-AF5C-7B03B612B617}" type="CELLRANGE">
+                    <a:fld id="{A566C403-C38E-47D6-88C1-CA5D44B319B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -385,7 +466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC37C958-EF5B-46E1-B05A-4C47EBA86BC9}" type="CELLRANGE">
+                    <a:fld id="{8BEC0B0F-7EF1-4090-937C-B26DE615B517}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -419,7 +500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38304E4D-D020-4670-AF35-0B66040F0518}" type="CELLRANGE">
+                    <a:fld id="{64446F00-1D4C-4162-B4AF-30CEFA77C6CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -453,7 +534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B00398E1-CFE3-4241-93F9-2A47D47798C0}" type="CELLRANGE">
+                    <a:fld id="{90C65830-9262-4D17-B457-EF7FDE77DAFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -487,7 +568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0147417C-5C5D-4881-9B32-A69FC3652414}" type="CELLRANGE">
+                    <a:fld id="{1A95A3B6-BAC9-4C9B-A6B6-49B47EFEFA28}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -521,7 +602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA39AEE1-3C96-439F-AB15-A22BA7C313E2}" type="CELLRANGE">
+                    <a:fld id="{6C32E2A0-9761-45AC-A3A1-079B3088B676}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -555,7 +636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{711237EF-C592-4F15-8351-A9FC59FF9FCB}" type="CELLRANGE">
+                    <a:fld id="{161BFA1A-B99D-4762-BE8C-6360E0A318D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -647,28 +728,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.6383958412910625E-2</c:v>
+                  <c:v>3.3843053286935681E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1188343021867838</c:v>
+                  <c:v>0.15599966167102838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7390451919404121E-2</c:v>
+                  <c:v>8.7149267264289565E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7390451919404121E-2</c:v>
+                  <c:v>8.7149267264289565E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1930833412910614E-2</c:v>
+                  <c:v>8.6942038582911135E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15958732214476698</c:v>
+                  <c:v>5.0093309851198926E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24424134000190983</c:v>
+                  <c:v>0.20854875430588227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24424134000190983</c:v>
+                  <c:v>0.29027464777346451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,28 +851,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.6383958412910625E-2</c:v>
+                  <c:v>3.3843053286935681E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1188343021867838</c:v>
+                  <c:v>0.15599966167102838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7390451919404121E-2</c:v>
+                  <c:v>8.7149267264289565E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7390451919404121E-2</c:v>
+                  <c:v>8.7149267264289565E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1930833412910614E-2</c:v>
+                  <c:v>8.6942038582911135E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15958732214476698</c:v>
+                  <c:v>5.0093309851198926E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24424134000190983</c:v>
+                  <c:v>0.20854875430588227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24424134000190983</c:v>
+                  <c:v>0.29027464777346451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,28 +884,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9.2767916825821251E-2</c:v>
+                  <c:v>6.7686106573871363E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2376686043735676</c:v>
+                  <c:v>0.31199932334205677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15478090383880824</c:v>
+                  <c:v>0.17429853452857913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15478090383880824</c:v>
+                  <c:v>0.17429853452857913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3861666825821228E-2</c:v>
+                  <c:v>0.17388407716582227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31917464428953396</c:v>
+                  <c:v>0.10018661970239785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48848268000381967</c:v>
+                  <c:v>0.41709750861176453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48848268000381967</c:v>
+                  <c:v>0.58054929554692902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,28 +942,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.6383958412910625E-2</c:v>
+                  <c:v>3.3843053286935681E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1188343021867838</c:v>
+                  <c:v>0.15599966167102838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7390451919404121E-2</c:v>
+                  <c:v>8.7149267264289565E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7390451919404121E-2</c:v>
+                  <c:v>8.7149267264289565E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1930833412910614E-2</c:v>
+                  <c:v>8.6942038582911135E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15958732214476698</c:v>
+                  <c:v>5.0093309851198926E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24424134000190983</c:v>
+                  <c:v>0.20854875430588227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24424134000190983</c:v>
+                  <c:v>0.29027464777346451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,28 +975,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3191979206455313E-2</c:v>
+                  <c:v>1.6921526643467841E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.94171510933919E-2</c:v>
+                  <c:v>7.7999830835514192E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8695225959702061E-2</c:v>
+                  <c:v>4.3574633632144782E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8695225959702061E-2</c:v>
+                  <c:v>4.3574633632144782E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5965416706455307E-2</c:v>
+                  <c:v>4.3471019291455568E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.979366107238349E-2</c:v>
+                  <c:v>2.5046654925599463E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12212067000095492</c:v>
+                  <c:v>0.10427437715294113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12212067000095492</c:v>
+                  <c:v>0.14513732388673226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,127 +1926,15 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Wieger"/>
-      <sheetName val="AHP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="29">
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-          <cell r="E29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Req. 1</v>
-          </cell>
-          <cell r="B30">
-            <v>0.62383383682704863</v>
-          </cell>
-          <cell r="C30">
-            <v>0.11180085643811251</v>
-          </cell>
-          <cell r="D30">
-            <v>1.2476676736540973</v>
-          </cell>
-          <cell r="E30">
-            <v>0.31191691841352431</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Req. 2</v>
-          </cell>
-          <cell r="B31">
-            <v>0.12449326920658518</v>
-          </cell>
-          <cell r="C31">
-            <v>0.11180085643811251</v>
-          </cell>
-          <cell r="D31">
-            <v>0.24898653841317037</v>
-          </cell>
-          <cell r="E31">
-            <v>6.2246634603292592E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Req. 3</v>
-          </cell>
-          <cell r="B32">
-            <v>0.10544565015896615</v>
-          </cell>
-          <cell r="C32">
-            <v>0.24722764740447589</v>
-          </cell>
-          <cell r="D32">
-            <v>0.2108913003179323</v>
-          </cell>
-          <cell r="E32">
-            <v>5.2722825079483074E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Req. 4</v>
-          </cell>
-          <cell r="B33">
-            <v>4.078159364843377E-2</v>
-          </cell>
-          <cell r="C33">
-            <v>3.3239331492799645E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>8.156318729686754E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>2.0390796824216885E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Req. 5</v>
-          </cell>
-          <cell r="B34">
-            <v>0.10544565015896615</v>
-          </cell>
-          <cell r="C34">
-            <v>0.49593130822649945</v>
-          </cell>
-          <cell r="D34">
-            <v>0.2108913003179323</v>
-          </cell>
-          <cell r="E34">
-            <v>5.2722825079483074E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="9DA1B4"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="252A33"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2260,83 +2229,83 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>3</v>
-      </c>
-      <c r="D1" s="10">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10">
-        <v>3</v>
-      </c>
-      <c r="G1" s="10">
-        <v>3</v>
-      </c>
-      <c r="H1" s="10">
-        <v>4</v>
-      </c>
-      <c r="I1" s="10">
-        <v>4</v>
-      </c>
-      <c r="J1" s="10">
-        <v>4</v>
-      </c>
-      <c r="K1" s="10">
-        <v>4</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9">
+        <v>4</v>
+      </c>
+      <c r="K1" s="9">
+        <v>4</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10">
-        <v>4</v>
-      </c>
-      <c r="E2" s="10">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10">
-        <v>4</v>
-      </c>
-      <c r="I2" s="10">
-        <v>4</v>
-      </c>
-      <c r="J2" s="10">
-        <v>4</v>
-      </c>
-      <c r="K2" s="10">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9">
+        <v>4</v>
+      </c>
+      <c r="H2" s="9">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9">
+        <v>4</v>
+      </c>
+      <c r="K2" s="9">
         <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -2352,42 +2321,42 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10">
-        <v>4</v>
-      </c>
-      <c r="E3" s="10">
-        <v>4</v>
-      </c>
-      <c r="F3" s="10">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10">
-        <v>4</v>
-      </c>
-      <c r="H3" s="10">
-        <v>4</v>
-      </c>
-      <c r="I3" s="10">
-        <v>4</v>
-      </c>
-      <c r="J3" s="10">
-        <v>3</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9">
         <v>4</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P3" s="2">
@@ -2398,42 +2367,42 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10">
-        <v>3</v>
-      </c>
-      <c r="J4" s="10">
-        <v>3</v>
-      </c>
-      <c r="K4" s="10">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9">
         <v>3</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="P4" s="2">
@@ -2444,42 +2413,42 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10">
-        <v>3</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10">
-        <v>4</v>
-      </c>
-      <c r="H5" s="10">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10">
-        <v>4</v>
-      </c>
-      <c r="J5" s="10">
-        <v>4</v>
-      </c>
-      <c r="K5" s="10">
+    <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9">
         <v>2</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P5" s="2">
@@ -2490,42 +2459,42 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
         <v>2</v>
       </c>
-      <c r="I6" s="10">
-        <v>3</v>
-      </c>
-      <c r="J6" s="10">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
         <v>1</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="2">
@@ -2536,35 +2505,35 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
-        <v>3</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="10">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
         <v>2</v>
       </c>
-      <c r="I7" s="10">
-        <v>4</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
         <v>2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>1</v>
       </c>
       <c r="M7" s="2"/>
@@ -2576,35 +2545,35 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3</v>
-      </c>
-      <c r="H8" s="10">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4</v>
-      </c>
-      <c r="J8" s="10">
-        <v>3</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9">
         <v>2</v>
       </c>
       <c r="M8" s="2"/>
@@ -2616,7 +2585,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2634,7 +2603,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -2644,596 +2613,596 @@
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="8" t="s">
+      <c r="M11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7">
         <f>COUNTIF($C1:$K1,1)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>COUNTIF($C1:$K1,2)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>COUNTIF($C1:$K1,3)</f>
         <v>4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>COUNTIF($C1:$K1,4)</f>
         <v>5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>B12*$B$10+C12*$C$10+D12*$D$10+E12*$E$10</f>
         <v>32</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="I12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
         <f>($F$12)-$F12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f>($F$13)-$F12</f>
         <v>3</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f>($F$14)-$F12</f>
         <v>1</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f>($F$15)-$F12</f>
         <v>-3</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f>($F$16)-$F12</f>
         <v>-1</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <f>($F$17)-$F12</f>
         <v>-10</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <f>($F$18)-$F12</f>
         <v>-10</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <f>($F$19)-$F12</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="8">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
         <f t="shared" ref="B13:B19" si="0">COUNTIF($C2:$K2,1)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f t="shared" ref="C13:C19" si="1">COUNTIF($C2:$K2,2)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" ref="D13:D19" si="2">COUNTIF($C2:$K2,3)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" ref="E13:E19" si="3">COUNTIF($C2:$K2,4)</f>
         <v>8</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" ref="F13:F19" si="4">B13*$B$10+C13*$C$10+D13*$D$10+E13*$E$10</f>
         <v>35</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="I13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
         <f>($F$12)-$F13</f>
         <v>-3</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" ref="K13:K19" si="5">($F$13)-$F13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f t="shared" ref="L13:L19" si="6">($F$14)-$F13</f>
         <v>-2</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" ref="M13:M19" si="7">($F$15)-$F13</f>
         <v>-6</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f t="shared" ref="N13:N19" si="8">($F$16)-$F13</f>
         <v>-4</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <f t="shared" ref="O13:O19" si="9">($F$17)-$F13</f>
         <v>-13</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <f t="shared" ref="P13:P19" si="10">($F$18)-$F13</f>
         <v>-13</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <f t="shared" ref="Q13:Q19" si="11">($F$19)-$F13</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f t="shared" ref="J14:J19" si="12">($F$12)-$F14</f>
         <v>-1</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <f t="shared" si="8"/>
         <v>-2</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <f t="shared" si="9"/>
         <v>-11</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <f t="shared" si="10"/>
         <v>-11</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="I15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <f t="shared" si="9"/>
         <v>-7</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <f t="shared" si="10"/>
         <v>-7</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="I16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <f t="shared" si="9"/>
         <v>-9</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <f t="shared" si="10"/>
         <v>-9</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <f>COUNTIF($C6:$K6,4)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <f t="shared" si="9"/>
         <v>-9</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <f t="shared" si="10"/>
         <v>-9</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E23" s="9">
-        <v>3</v>
-      </c>
-      <c r="F23" s="9">
-        <v>3</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3</v>
+      </c>
+      <c r="G23" s="8">
         <v>9</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>9</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>3</v>
       </c>
       <c r="L23" s="2"/>
@@ -3242,623 +3211,623 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>3</v>
-      </c>
-      <c r="E24" s="9">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8">
         <v>7</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>5</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>9</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>9</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>5</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
         <v>5</v>
       </c>
-      <c r="F25" s="9">
-        <v>3</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="8">
+        <v>3</v>
+      </c>
+      <c r="G25" s="8">
         <v>9</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>9</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>3</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="9">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.2</v>
       </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>7</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>7</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="9">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>0.2</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E27" s="9">
-        <v>3</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
         <v>9</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="8">
         <v>9</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>1</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>0.125</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>0.14285714285714285</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9">
-        <v>1</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>0.14285714285714285</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>0.2</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E30" s="9">
-        <v>3</v>
-      </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="E30" s="8">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
         <v>9</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>9</v>
       </c>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="9">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="8">
         <f>B23/SUM(B$23:B$30)</f>
         <v>0.12162162162162163</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <f t="shared" ref="C35:I35" si="13">C23/SUM(C$23:C$30)</f>
         <v>0.13707571801566579</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <f t="shared" si="13"/>
         <v>6.1318344404701075E-2</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <f t="shared" si="13"/>
         <v>0.13461538461538461</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <f t="shared" si="13"/>
         <v>0.22131147540983606</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <f t="shared" si="13"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <f t="shared" si="13"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <f t="shared" si="13"/>
         <v>0.22131147540983606</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <f>SUM(B35:I35)</f>
         <v>1.2305873528103786</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <f>J35/8</f>
         <v>0.15382341910129732</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="9">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="8">
         <f t="shared" ref="B36:B42" si="14">B24/SUM(B$23:B$30)</f>
         <v>0.36486486486486491</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <f t="shared" ref="C36:I36" si="15">C24/SUM(C$23:C$30)</f>
         <v>0.41122715404699733</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <f t="shared" si="15"/>
         <v>0.55186509964230968</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <f t="shared" si="15"/>
         <v>0.3141025641025641</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <f t="shared" si="15"/>
         <v>0.36885245901639346</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <f t="shared" si="15"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <f t="shared" si="15"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <f t="shared" si="15"/>
         <v>0.36885245901639346</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <f t="shared" ref="J36:J42" si="16">SUM(B36:I36)</f>
         <v>2.7130979340228558</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <f t="shared" ref="K36:K42" si="17">J36/8</f>
         <v>0.33913724175285698</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <f t="shared" si="14"/>
         <v>0.36486486486486491</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <f t="shared" ref="C37:I37" si="18">C25/SUM(C$23:C$30)</f>
         <v>0.13707571801566579</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <f t="shared" si="18"/>
         <v>0.18395503321410323</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <f t="shared" si="18"/>
         <v>0.22435897435897437</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <f t="shared" si="18"/>
         <v>0.22131147540983606</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <f t="shared" si="18"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <f t="shared" si="18"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <f t="shared" si="18"/>
         <v>0.22131147540983606</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <f t="shared" si="16"/>
         <v>1.6862108746066138</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f t="shared" si="17"/>
         <v>0.21077635932582672</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="9">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="8">
         <f t="shared" si="14"/>
         <v>4.0540540540540543E-2</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <f t="shared" ref="C38:I38" si="19">C26/SUM(C$23:C$30)</f>
         <v>5.8746736292428187E-2</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <f t="shared" si="19"/>
         <v>3.6791006642820645E-2</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <f t="shared" si="19"/>
         <v>4.4871794871794872E-2</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <f t="shared" si="19"/>
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <f t="shared" si="19"/>
         <v>0.12962962962962962</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <f t="shared" si="19"/>
         <v>0.12962962962962962</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="8">
         <f t="shared" si="19"/>
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="8">
         <f t="shared" si="16"/>
         <v>0.48938966547569596</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <f t="shared" si="17"/>
         <v>6.1173708184461995E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="9">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="8">
         <f t="shared" si="14"/>
         <v>4.0540540540540543E-2</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <f t="shared" ref="C39:I39" si="20">C27/SUM(C$23:C$30)</f>
         <v>8.2245430809399472E-2</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <f t="shared" si="20"/>
         <v>6.1318344404701075E-2</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <f t="shared" si="20"/>
         <v>0.13461538461538461</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <f t="shared" si="20"/>
         <v>7.3770491803278687E-2</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <f t="shared" si="20"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <f t="shared" si="20"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <f t="shared" si="20"/>
         <v>7.3770491803278687E-2</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <f t="shared" si="16"/>
         <v>0.79959401730991631</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="10">
         <f t="shared" si="17"/>
         <v>9.9949252163739538E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <f t="shared" si="14"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <f t="shared" ref="C40:I40" si="21">C28/SUM(C$23:C$30)</f>
         <v>4.5691906005221924E-2</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <f t="shared" si="21"/>
         <v>2.2994379151762903E-2</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <f t="shared" si="21"/>
         <v>6.41025641025641E-3</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <f t="shared" si="21"/>
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <f t="shared" si="21"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <f t="shared" si="21"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <f t="shared" si="21"/>
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <f t="shared" si="16"/>
         <v>0.14204053474074263</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <f t="shared" si="17"/>
         <v>1.7755066842592829E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <f t="shared" si="14"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f t="shared" ref="C41:I41" si="22">C29/SUM(C$23:C$30)</f>
         <v>4.5691906005221924E-2</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <f t="shared" si="22"/>
         <v>2.0439448134900357E-2</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f t="shared" si="22"/>
         <v>6.41025641025641E-3</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <f t="shared" si="22"/>
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <f t="shared" si="22"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <f t="shared" si="22"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <f t="shared" si="22"/>
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <f t="shared" si="16"/>
         <v>0.13948560372388008</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <f t="shared" si="17"/>
         <v>1.743570046548501E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <f t="shared" si="14"/>
         <v>4.0540540540540543E-2</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <f t="shared" ref="C42:I42" si="23">C30/SUM(C$23:C$30)</f>
         <v>8.2245430809399472E-2</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <f t="shared" si="23"/>
         <v>6.1318344404701075E-2</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <f t="shared" si="23"/>
         <v>0.13461538461538461</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <f t="shared" si="23"/>
         <v>7.3770491803278687E-2</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <f t="shared" si="23"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <f t="shared" si="23"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="8">
         <f t="shared" si="23"/>
         <v>7.3770491803278687E-2</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <f t="shared" si="16"/>
         <v>0.79959401730991631</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <f t="shared" si="17"/>
         <v>9.9949252163739538E-2</v>
       </c>
@@ -3878,50 +3847,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622AD14E-5420-4EDE-98C0-9724C3152F77}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>3</v>
-      </c>
-      <c r="D1" s="10">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9">
         <v>2</v>
       </c>
-      <c r="E1" s="8">
-        <v>3</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="E1" s="7">
+        <v>2</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>4</v>
-      </c>
-      <c r="D2" s="10">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
         <v>3</v>
       </c>
       <c r="F2" s="2"/>
@@ -3942,17 +3911,17 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>3</v>
       </c>
       <c r="F3" s="2"/>
@@ -3964,10 +3933,10 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="2">
@@ -3975,24 +3944,24 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>4</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="2">
@@ -4000,24 +3969,24 @@
       </c>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10">
+    <row r="5" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
-        <v>2</v>
+      <c r="E5" s="7">
+        <v>4</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="R5" s="2">
@@ -4025,24 +3994,24 @@
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:19" ht="39" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4</v>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="R6" s="2">
@@ -4050,1253 +4019,1261 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="12">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="8" t="s">
+      <c r="M11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8">
-        <f>COUNTIF($C1:$K1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <f>COUNTIF($C1:$K1,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <f>COUNTIF($C1:$K1,3)</f>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" ref="B12:B19" si="0">COUNTIF($C1:$K1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" ref="C12:C19" si="1">COUNTIF($C1:$K1,2)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="8">
-        <f>COUNTIF($C1:$K1,4)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <f>B12*$B$10+C12*$C$10+D12*$D$10+E12*$E$10</f>
-        <v>8</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:D19" si="2">COUNTIF($C1:$K1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12:E19" si="3">COUNTIF($C1:$K1,4)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F18" si="4">B12*$B$10+C12*$C$10+D12*$D$10+E12*$E$10</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
         <f>($F$12)-$F12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f>($F$13)-$F12</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="7">
+        <f>($F$14)-$F12</f>
         <v>2</v>
       </c>
-      <c r="L12" s="8">
-        <f>($F$14)-$F12</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f>($F$15)-$F12</f>
-        <v>1</v>
-      </c>
-      <c r="N12" s="8">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
         <f>($F$16)-$F12</f>
-        <v>-1</v>
-      </c>
-      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="O12" s="7">
         <f>($F$17)-$F12</f>
-        <v>3</v>
-      </c>
-      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7">
         <f>($F$18)-$F12</f>
         <v>4</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <f>($F$19)-$F12</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="8">
-        <f>COUNTIF($C2:$K2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <f>COUNTIF($C2:$K2,2)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <f>COUNTIF($C2:$K2,3)</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <f>COUNTIF($C2:$K2,4)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <f>B13*$B$10+C13*$C$10+D13*$D$10+E13*$E$10</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <f>($F$12)-$F13</f>
-        <v>-2</v>
-      </c>
-      <c r="K13" s="8">
-        <f t="shared" ref="K13:K19" si="0">($F$13)-$F13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" ref="L13:L19" si="1">($F$14)-$F13</f>
-        <v>-1</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" ref="M13:M19" si="2">($F$15)-$F13</f>
-        <v>-1</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" ref="N13:N19" si="3">($F$16)-$F13</f>
-        <v>-3</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" ref="O13:O19" si="4">($F$17)-$F13</f>
-        <v>1</v>
-      </c>
-      <c r="P13" s="8">
-        <f t="shared" ref="P13:P19" si="5">($F$18)-$F13</f>
-        <v>2</v>
-      </c>
-      <c r="Q13" s="8">
-        <f t="shared" ref="Q13:Q19" si="6">($F$19)-$F13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="8">
-        <f>COUNTIF($C3:$K3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <f>COUNTIF($C3:$K3,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <f>COUNTIF($C3:$K3,3)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <f>COUNTIF($C3:$K3,4)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <f>B14*$B$10+C14*$C$10+D14*$D$10+E14*$E$10</f>
-        <v>9</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" ref="J14:J19" si="7">($F$12)-$F14</f>
-        <v>-1</v>
-      </c>
-      <c r="K14" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q14" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8">
-        <f>COUNTIF($C4:$K4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <f>COUNTIF($C4:$K4,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <f>COUNTIF($C4:$K4,3)</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <f>COUNTIF($C4:$K4,4)</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <f>B15*$B$10+C15*$C$10+D15*$D$10+E15*$E$10</f>
-        <v>9</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8">
-        <f>COUNTIF($C5:$K5,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <f>COUNTIF($C5:$K5,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D16" s="8">
-        <f>COUNTIF($C5:$K5,3)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <f>COUNTIF($C5:$K5,4)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <f>B16*$B$10+C16*$C$10+D16*$D$10+E16*$E$10</f>
-        <v>7</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N16" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P16" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <f>($F$12)-$F13</f>
+        <v>-3</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" ref="K13:K19" si="5">($F$13)-$F13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13:L19" si="6">($F$14)-$F13</f>
+        <v>-1</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" ref="M13:M19" si="7">($F$15)-$F13</f>
+        <v>-1</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" ref="N13:N19" si="8">($F$16)-$F13</f>
+        <v>-1</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" ref="O13:O19" si="9">($F$17)-$F13</f>
+        <v>-2</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" ref="P13:P19" si="10">($F$18)-$F13</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" ref="Q13:Q19" si="11">($F$19)-$F13</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" ref="J14:J19" si="12">($F$12)-$F14</f>
+        <v>-2</v>
+      </c>
+      <c r="K14" s="7">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="8">
-        <f>COUNTIF($C6:$K6,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <f>COUNTIF($C6:$K6,2)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <f>COUNTIF($C6:$K6,3)</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <f>COUNTIF($C6:$K6,4)</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F17" s="8">
-        <f>B17*$B$10+C17*$C$10+D17*$D$10+E17*$E$10</f>
+      <c r="F18" s="7">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="I18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="7">
+        <f>($F$12)-$F18</f>
+        <v>-4</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <f>B19*$B$10+C19*$C$10+D19*$D$10+E19*$E$10</f>
+        <v>12</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="12"/>
+        <v>-5</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="M19" s="7">
         <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" si="0"/>
+      <c r="N19" s="7">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="L17" s="8">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="8">
-        <f>COUNTIF($C7:$K7,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <f>COUNTIF($C7:$K7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <f>COUNTIF($C7:$K7,3)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <f>COUNTIF($C7:$K7,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F18" s="8">
-        <f>B18*$B$10+C18*$C$10+D18*$D$10+E18*$E$10</f>
-        <v>12</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="7"/>
-        <v>-4</v>
-      </c>
-      <c r="K18" s="8">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="M18" s="8">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="N18" s="8">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="P18" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="8">
-        <f>COUNTIF($C8:$K8,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
-        <f>COUNTIF($C8:$K8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <f>COUNTIF($C8:$K8,3)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <f>COUNTIF($C8:$K8,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F19" s="8">
-        <f>B19*$B$10+C19*$C$10+D19*$D$10+E19*$E$10</f>
-        <v>11</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="7"/>
-        <v>-3</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q19" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K21" s="2"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F23" s="9">
-        <v>3</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="G23" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>0.2</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>0.2</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>3</v>
-      </c>
-      <c r="E24" s="9">
-        <v>3</v>
-      </c>
-      <c r="F24" s="9">
-        <v>3</v>
-      </c>
-      <c r="G24" s="9">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>3</v>
+      </c>
+      <c r="H24" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I24" s="9">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <v>3</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3</v>
+      </c>
+      <c r="H25" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I25" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I25" s="9">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="9">
-        <v>3</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9">
-        <v>3</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="I26" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H26" s="9">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I26" s="9">
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>3</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="I28" s="8">
         <v>0.2</v>
       </c>
-      <c r="H27" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8">
         <v>5</v>
       </c>
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9">
-        <v>3</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3</v>
+      </c>
+      <c r="G29" s="8">
+        <v>3</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="8">
         <v>5</v>
       </c>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="C30" s="8">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3</v>
+      </c>
+      <c r="E30" s="8">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8">
+        <v>5</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9">
+      <c r="I33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="8">
+        <f t="shared" ref="B34" si="13">B23/SUM(B$23:B$30)</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" ref="C34:I34" si="14">C23/SUM(C$23:C$30)</f>
+        <v>3.8476337052712577E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="14"/>
+        <v>2.6322716504343244E-2</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="14"/>
+        <v>2.6322716504343244E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="14"/>
+        <v>2.6066350710900476E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="14"/>
+        <v>1.5624999999999997E-2</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="14"/>
+        <v>3.4110289937464469E-2</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="14"/>
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" ref="J34" si="15">SUM(B34:I34)</f>
+        <v>0.27074442629548545</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" ref="K34:K41" si="16">J34/8</f>
+        <v>3.3843053286935681E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8">
+        <f>B24/SUM(B$23:B$30)</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="C35" s="8">
+        <f t="shared" ref="C35:I35" si="17">C24/SUM(C$23:C$30)</f>
+        <v>0.11542901115813774</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="17"/>
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="17"/>
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="17"/>
+        <v>0.23696682464454977</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="17"/>
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="17"/>
+        <v>5.6850483229107442E-2</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="17"/>
+        <v>0.10893246187363834</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" ref="J35:J41" si="18">SUM(B35:I35)</f>
+        <v>1.2479972933682271</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="16"/>
+        <v>0.15599966167102838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <f t="shared" ref="B36:I37" si="19">B25/SUM(B$23:B$30)</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="19"/>
+        <v>3.8476337052712577E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="19"/>
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="19"/>
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="19"/>
+        <v>7.8988941548183256E-2</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="19"/>
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="19"/>
+        <v>5.6850483229107442E-2</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="19"/>
+        <v>0.10893246187363834</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="18"/>
+        <v>0.69719413811431652</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="16"/>
+        <v>8.7149267264289565E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" si="19"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="19"/>
+        <v>3.8476337052712577E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="19"/>
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="19"/>
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="19"/>
+        <v>7.8988941548183256E-2</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="19"/>
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="19"/>
+        <v>5.6850483229107442E-2</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="19"/>
+        <v>0.10893246187363834</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" si="18"/>
+        <v>0.69719413811431652</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="16"/>
+        <v>8.7149267264289565E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" ref="B38:I39" si="20">B27/SUM(B$23:B$30)</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="20"/>
+        <v>3.8476337052712577E-2</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="20"/>
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="20"/>
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="20"/>
+        <v>7.8988941548183256E-2</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="20"/>
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="20"/>
+        <v>5.6281978396816375E-2</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="20"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="18"/>
+        <v>0.69553630866328908</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="16"/>
+        <v>8.6942038582911135E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9">
-        <v>3</v>
-      </c>
-      <c r="E29" s="9">
-        <v>3</v>
-      </c>
-      <c r="F29" s="9">
-        <v>5</v>
-      </c>
-      <c r="G29" s="9">
-        <v>3</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="B39" s="8">
+        <f t="shared" si="20"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="20"/>
+        <v>3.8091573682185458E-2</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="20"/>
+        <v>2.6059489339299816E-2</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="20"/>
+        <v>2.6059489339299816E-2</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="20"/>
+        <v>2.6066350710900476E-2</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="20"/>
+        <v>4.6874999999999993E-2</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="20"/>
+        <v>5.6850483229107442E-2</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="20"/>
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="18"/>
+        <v>0.40074647880959141</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="16"/>
+        <v>5.0093309851198926E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" ref="B40:I41" si="21">B29/SUM(B$23:B$30)</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="21"/>
+        <v>0.3462870334744132</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23696682464454977</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="21"/>
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="21"/>
+        <v>0.17055144968732233</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="21"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="18"/>
+        <v>1.6683900344470581</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="16"/>
+        <v>0.20854875430588227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="9">
-        <v>5</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9">
-        <v>3</v>
-      </c>
-      <c r="E30" s="9">
-        <v>3</v>
-      </c>
-      <c r="F30" s="9">
-        <v>5</v>
-      </c>
-      <c r="G30" s="9">
-        <v>3</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9">
-        <f t="shared" ref="B34:E34" si="8">B23/SUM(B$23:B$30)</f>
-        <v>4.2857142857142851E-2</v>
-      </c>
-      <c r="C34" s="9">
-        <f t="shared" ref="C34:I34" si="9">C23/SUM(C$23:C$30)</f>
-        <v>2.9411764705882356E-2</v>
-      </c>
-      <c r="D34" s="9">
-        <f t="shared" si="9"/>
-        <v>2.2727272727272724E-2</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="9"/>
-        <v>2.2727272727272724E-2</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="9"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="G34" s="9">
-        <f t="shared" si="9"/>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="shared" si="9"/>
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="I34" s="9">
-        <f t="shared" si="9"/>
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="J34" s="9">
-        <f t="shared" ref="J34" si="10">SUM(B34:I34)</f>
-        <v>0.371071667303285</v>
-      </c>
-      <c r="K34" s="11">
-        <f t="shared" ref="K34:K41" si="11">J34/8</f>
-        <v>4.6383958412910625E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <f>B24/SUM(B$23:B$30)</f>
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="C35" s="9">
-        <f t="shared" ref="C35:I35" si="12">C24/SUM(C$23:C$30)</f>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="D35" s="9">
-        <f t="shared" si="12"/>
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" si="12"/>
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="F35" s="9">
-        <f t="shared" si="12"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="G35" s="9">
-        <f t="shared" si="12"/>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="I35" s="9">
-        <f t="shared" si="12"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="J35" s="9">
-        <f t="shared" ref="J35:J41" si="13">SUM(B35:I35)</f>
-        <v>0.9506744174942704</v>
-      </c>
-      <c r="K35" s="11">
-        <f t="shared" si="11"/>
-        <v>0.1188343021867838</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <f t="shared" ref="B36:I37" si="14">B25/SUM(B$23:B$30)</f>
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="C36" s="9">
-        <f t="shared" si="14"/>
-        <v>2.9411764705882356E-2</v>
-      </c>
-      <c r="D36" s="9">
-        <f t="shared" si="14"/>
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="E36" s="9">
-        <f t="shared" si="14"/>
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="F36" s="9">
-        <f t="shared" si="14"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="G36" s="9">
-        <f t="shared" si="14"/>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="H36" s="9">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="I36" s="9">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="J36" s="9">
-        <f t="shared" si="13"/>
-        <v>0.61912361535523297</v>
-      </c>
-      <c r="K36" s="11">
-        <f t="shared" si="11"/>
-        <v>7.7390451919404121E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <f t="shared" si="14"/>
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="C37" s="9">
-        <f t="shared" si="14"/>
-        <v>2.9411764705882356E-2</v>
-      </c>
-      <c r="D37" s="9">
-        <f t="shared" si="14"/>
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="14"/>
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="F37" s="9">
-        <f t="shared" si="14"/>
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="14"/>
-        <v>3.90625E-2</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="I37" s="9">
-        <f t="shared" si="14"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="J37" s="9">
-        <f t="shared" si="13"/>
-        <v>0.61912361535523297</v>
-      </c>
-      <c r="K37" s="11">
-        <f t="shared" si="11"/>
-        <v>7.7390451919404121E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <f t="shared" ref="B38:I39" si="15">B27/SUM(B$23:B$30)</f>
-        <v>1.4285714285714284E-2</v>
-      </c>
-      <c r="C38" s="9">
-        <f t="shared" si="15"/>
-        <v>2.9411764705882356E-2</v>
-      </c>
-      <c r="D38" s="9">
-        <f t="shared" si="15"/>
-        <v>2.2727272727272724E-2</v>
-      </c>
-      <c r="E38" s="9">
-        <f t="shared" si="15"/>
-        <v>2.2727272727272724E-2</v>
-      </c>
-      <c r="F38" s="9">
-        <f t="shared" si="15"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="G38" s="9">
-        <f t="shared" si="15"/>
-        <v>2.34375E-2</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="15"/>
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="I38" s="9">
-        <f t="shared" si="15"/>
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="J38" s="9">
-        <f t="shared" si="13"/>
-        <v>0.25544666730328491</v>
-      </c>
-      <c r="K38" s="11">
-        <f t="shared" si="11"/>
-        <v>3.1930833412910614E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <f t="shared" si="15"/>
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="C39" s="9">
-        <f t="shared" si="15"/>
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="D39" s="9">
-        <f t="shared" si="15"/>
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="E39" s="9">
-        <f t="shared" si="15"/>
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="F39" s="9">
-        <f t="shared" si="15"/>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="G39" s="9">
-        <f t="shared" si="15"/>
-        <v>0.1171875</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="I39" s="9">
-        <f t="shared" si="15"/>
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="J39" s="9">
-        <f t="shared" si="13"/>
-        <v>1.2766985771581358</v>
-      </c>
-      <c r="K39" s="11">
-        <f t="shared" si="11"/>
-        <v>0.15958732214476698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="9">
-        <f t="shared" ref="B40:I41" si="16">B29/SUM(B$23:B$30)</f>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="B41" s="8">
+        <f t="shared" si="21"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="21"/>
+        <v>0.3462870334744132</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23696682464454977</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23437499999999997</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="21"/>
+        <v>0.51165434906196705</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="21"/>
+        <v>0.32679738562091504</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="18"/>
+        <v>2.3221971821877161</v>
+      </c>
+      <c r="K41" s="10">
         <f t="shared" si="16"/>
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="D40" s="9">
-        <f t="shared" si="16"/>
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="E40" s="9">
-        <f t="shared" si="16"/>
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="F40" s="9">
-        <f t="shared" si="16"/>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="G40" s="9">
-        <f t="shared" si="16"/>
-        <v>0.3515625</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="16"/>
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="I40" s="9">
-        <f t="shared" si="16"/>
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="J40" s="9">
-        <f t="shared" si="13"/>
-        <v>1.9539307200152787</v>
-      </c>
-      <c r="K40" s="11">
-        <f t="shared" si="11"/>
-        <v>0.24424134000190983</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="9">
-        <f t="shared" si="16"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="C41" s="9">
-        <f t="shared" si="16"/>
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="D41" s="9">
-        <f t="shared" si="16"/>
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="16"/>
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="16"/>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="16"/>
-        <v>0.3515625</v>
-      </c>
-      <c r="H41" s="9">
-        <f t="shared" si="16"/>
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="16"/>
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="13"/>
-        <v>1.9539307200152787</v>
-      </c>
-      <c r="K41" s="11">
-        <f t="shared" si="11"/>
-        <v>0.24424134000190983</v>
+        <v>0.29027464777346451</v>
       </c>
     </row>
   </sheetData>
@@ -5305,6 +5282,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5313,12 +5291,12 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="B16" sqref="B16:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5326,804 +5304,804 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>0.12162162162162163</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.13707571801566579</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>6.1318344404701075E-2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>0.13461538461538461</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>0.22131147540983606</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>0.22131147540983606</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>1.2305873528103786</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>0.15382341910129732</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>4.2857142857142851E-2</v>
-      </c>
-      <c r="O4" s="9">
-        <v>2.9411764705882356E-2</v>
-      </c>
-      <c r="P4" s="9">
-        <v>2.2727272727272724E-2</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>2.2727272727272724E-2</v>
-      </c>
-      <c r="R4" s="9">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="S4" s="9">
-        <v>3.90625E-2</v>
-      </c>
-      <c r="T4" s="9">
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="U4" s="9">
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="V4" s="9">
-        <v>0.371071667303285</v>
-      </c>
-      <c r="W4" s="13">
-        <v>4.6383958412910625E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="M4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="O4" s="8">
+        <v>3.8476337052712577E-2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>2.6322716504343244E-2</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>2.6322716504343244E-2</v>
+      </c>
+      <c r="R4" s="8">
+        <v>2.6066350710900476E-2</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1.5624999999999997E-2</v>
+      </c>
+      <c r="T4" s="8">
+        <v>3.4110289937464469E-2</v>
+      </c>
+      <c r="U4" s="8">
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0.27074442629548545</v>
+      </c>
+      <c r="W4" s="12">
+        <v>3.3843053286935681E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
         <v>0.36486486486486491</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.41122715404699733</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.55186509964230968</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.3141025641025641</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0.36885245901639346</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.36885245901639346</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>2.7130979340228558</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>0.33913724175285698</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="O5" s="9">
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="S5" s="9">
-        <v>3.90625E-2</v>
-      </c>
-      <c r="T5" s="9">
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="U5" s="9">
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>0.9506744174942704</v>
-      </c>
-      <c r="W5" s="13">
-        <v>0.1188343021867838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="M5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.11542901115813774</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.23696682464454977</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="T5" s="8">
+        <v>5.6850483229107442E-2</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0.10893246187363834</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1.2479972933682271</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0.15599966167102838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.36486486486486491</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.13707571801566579</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.18395503321410323</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.22435897435897437</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>0.22131147540983606</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>0.22131147540983606</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>1.6862108746066138</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>0.21077635932582672</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="9">
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="O6" s="9">
-        <v>2.9411764705882356E-2</v>
-      </c>
-      <c r="P6" s="9">
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="S6" s="9">
-        <v>3.90625E-2</v>
-      </c>
-      <c r="T6" s="9">
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="U6" s="9">
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0.61912361535523297</v>
-      </c>
-      <c r="W6" s="13">
-        <v>7.7390451919404121E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="N6" s="8">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="O6" s="8">
+        <v>3.8476337052712577E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7.8988941548183256E-2</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="T6" s="8">
+        <v>5.6850483229107442E-2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.10893246187363834</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0.69719413811431652</v>
+      </c>
+      <c r="W6" s="12">
+        <v>8.7149267264289565E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
         <v>4.0540540540540543E-2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>5.8746736292428187E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>3.6791006642820645E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>4.4871794871794872E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0.12962962962962962</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.12962962962962962</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>2.4590163934426229E-2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.48938966547569596</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>6.1173708184461995E-2</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="O7" s="9">
-        <v>2.9411764705882356E-2</v>
-      </c>
-      <c r="P7" s="9">
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="S7" s="9">
-        <v>3.90625E-2</v>
-      </c>
-      <c r="T7" s="9">
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="U7" s="9">
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0.61912361535523297</v>
-      </c>
-      <c r="W7" s="13">
-        <v>7.7390451919404121E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="M7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="O7" s="8">
+        <v>3.8476337052712577E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="R7" s="8">
+        <v>7.8988941548183256E-2</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="T7" s="8">
+        <v>5.6850483229107442E-2</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0.10893246187363834</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0.69719413811431652</v>
+      </c>
+      <c r="W7" s="12">
+        <v>8.7149267264289565E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
         <v>4.0540540540540543E-2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>8.2245430809399472E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>6.1318344404701075E-2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0.13461538461538461</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>7.3770491803278687E-2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>7.3770491803278687E-2</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>0.79959401730991631</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>9.9949252163739538E-2</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1.4285714285714284E-2</v>
-      </c>
-      <c r="O8" s="9">
-        <v>2.9411764705882356E-2</v>
-      </c>
-      <c r="P8" s="9">
-        <v>2.2727272727272724E-2</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>2.2727272727272724E-2</v>
-      </c>
-      <c r="R8" s="9">
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="S8" s="9">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="T8" s="9">
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="U8" s="9">
-        <v>5.3571428571428575E-2</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0.25544666730328491</v>
-      </c>
-      <c r="W8" s="13">
-        <v>3.1930833412910614E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="M8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="O8" s="8">
+        <v>3.8476337052712577E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>7.8968149513029745E-2</v>
+      </c>
+      <c r="R8" s="8">
+        <v>7.8988941548183256E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="T8" s="8">
+        <v>5.6281978396816375E-2</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0.69553630866328908</v>
+      </c>
+      <c r="W8" s="12">
+        <v>8.6942038582911135E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>4.5691906005221924E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>2.2994379151762903E-2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>6.41025641025641E-3</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>0.14204053474074263</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>1.7755066842592829E-2</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="9">
-        <v>0.12857142857142856</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0.1171875</v>
-      </c>
-      <c r="T9" s="9">
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="U9" s="9">
-        <v>8.9285714285714274E-2</v>
-      </c>
-      <c r="V9" s="9">
-        <v>1.2766985771581358</v>
-      </c>
-      <c r="W9" s="13">
-        <v>0.15958732214476698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="N9" s="8">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="O9" s="8">
+        <v>3.8091573682185458E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <v>2.6059489339299816E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>2.6059489339299816E-2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>2.6066350710900476E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>4.6874999999999993E-2</v>
+      </c>
+      <c r="T9" s="8">
+        <v>5.6850483229107442E-2</v>
+      </c>
+      <c r="U9" s="8">
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.40074647880959141</v>
+      </c>
+      <c r="W9" s="12">
+        <v>5.0093309851198926E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>4.5691906005221924E-2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2.0439448134900357E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>6.41025641025641E-3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>8.1967213114754103E-3</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0.13948560372388008</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>1.743570046548501E-2</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="9">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0.3515625</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="V10" s="9">
-        <v>1.9539307200152787</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0.24424134000190983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="N10" s="8">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.3462870334744132</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.23696682464454977</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0.14062499999999997</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0.17055144968732233</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1.6683900344470581</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0.20854875430588227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>4.0540540540540543E-2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>8.2245430809399472E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>6.1318344404701075E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>0.13461538461538461</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>7.3770491803278687E-2</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>7.3770491803278687E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0.79959401730991631</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>9.9949252163739538E-2</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="9">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0.20454545454545453</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="S11" s="9">
-        <v>0.3515625</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0.26785714285714285</v>
-      </c>
-      <c r="V11" s="9">
-        <v>1.9539307200152787</v>
-      </c>
-      <c r="W11" s="13">
-        <v>0.24424134000190983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K12" s="14">
+      <c r="N11" s="8">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.3462870334744132</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.23690444853908924</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.23696682464454977</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.23437499999999997</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0.51165434906196705</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.32679738562091504</v>
+      </c>
+      <c r="V11" s="8">
+        <v>2.3221971821877161</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0.29027464777346451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K12" s="13">
         <f>SUM(K4:K11)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="13">
         <f>SUM(W4:W11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="13">
-        <v>4.6383958412910625E-2</v>
-      </c>
-      <c r="C16" s="13">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12">
+        <v>3.3843053286935681E-2</v>
+      </c>
+      <c r="C16" s="12">
         <v>0.15382341910129732</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <f>B16*2</f>
-        <v>9.2767916825821251E-2</v>
-      </c>
-      <c r="E16" s="13">
+        <v>6.7686106573871363E-2</v>
+      </c>
+      <c r="E16" s="12">
         <f>B16*0.5</f>
-        <v>2.3191979206455313E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0.1188343021867838</v>
-      </c>
-      <c r="C17" s="13">
+        <v>1.6921526643467841E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.15599966167102838</v>
+      </c>
+      <c r="C17" s="12">
         <v>0.33913724175285698</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f t="shared" ref="D17:D23" si="0">B17*2</f>
-        <v>0.2376686043735676</v>
-      </c>
-      <c r="E17" s="13">
+        <v>0.31199932334205677</v>
+      </c>
+      <c r="E17" s="12">
         <f t="shared" ref="E17:E23" si="1">B17*0.5</f>
-        <v>5.94171510933919E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+        <v>7.7999830835514192E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="13">
-        <v>7.7390451919404121E-2</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="12">
+        <v>8.7149267264289565E-2</v>
+      </c>
+      <c r="C18" s="12">
         <v>0.21077635932582672</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>0.15478090383880824</v>
-      </c>
-      <c r="E18" s="13">
+        <v>0.17429853452857913</v>
+      </c>
+      <c r="E18" s="12">
         <f t="shared" si="1"/>
-        <v>3.8695225959702061E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="13">
-        <v>7.7390451919404121E-2</v>
-      </c>
-      <c r="C19" s="13">
+        <v>4.3574633632144782E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12">
+        <v>8.7149267264289565E-2</v>
+      </c>
+      <c r="C19" s="12">
         <v>6.1173708184461995E-2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
-        <v>0.15478090383880824</v>
-      </c>
-      <c r="E19" s="13">
+        <v>0.17429853452857913</v>
+      </c>
+      <c r="E19" s="12">
         <f t="shared" si="1"/>
-        <v>3.8695225959702061E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="13">
-        <v>3.1930833412910614E-2</v>
-      </c>
-      <c r="C20" s="13">
+        <v>4.3574633632144782E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12">
+        <v>8.6942038582911135E-2</v>
+      </c>
+      <c r="C20" s="12">
         <v>9.9949252163739538E-2</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>6.3861666825821228E-2</v>
-      </c>
-      <c r="E20" s="13">
+        <v>0.17388407716582227</v>
+      </c>
+      <c r="E20" s="12">
         <f t="shared" si="1"/>
-        <v>1.5965416706455307E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+        <v>4.3471019291455568E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="13">
-        <v>0.15958732214476698</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="12">
+        <v>5.0093309851198926E-2</v>
+      </c>
+      <c r="C21" s="12">
         <v>1.7755066842592829E-2</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
-        <v>0.31917464428953396</v>
-      </c>
-      <c r="E21" s="13">
+        <v>0.10018661970239785</v>
+      </c>
+      <c r="E21" s="12">
         <f t="shared" si="1"/>
-        <v>7.979366107238349E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+        <v>2.5046654925599463E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="13">
-        <v>0.24424134000190983</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="12">
+        <v>0.20854875430588227</v>
+      </c>
+      <c r="C22" s="12">
         <v>1.743570046548501E-2</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
-        <v>0.48848268000381967</v>
-      </c>
-      <c r="E22" s="13">
+        <v>0.41709750861176453</v>
+      </c>
+      <c r="E22" s="12">
         <f t="shared" si="1"/>
-        <v>0.12212067000095492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+        <v>0.10427437715294113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="13">
-        <v>0.24424134000190983</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="12">
+        <v>0.29027464777346451</v>
+      </c>
+      <c r="C23" s="12">
         <v>9.9949252163739538E-2</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>0.48848268000381967</v>
-      </c>
-      <c r="E23" s="13">
+        <v>0.58054929554692902</v>
+      </c>
+      <c r="E23" s="12">
         <f t="shared" si="1"/>
-        <v>0.12212067000095492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.14513732388673226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>37</v>
       </c>
